--- a/Deliverable.xlsx
+++ b/Deliverable.xlsx
@@ -36,13 +36,13 @@
     <t xml:space="preserve">ECR</t>
   </si>
   <si>
-    <t xml:space="preserve">desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tablet</t>
+    <t xml:space="preserve">Desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tablet</t>
   </si>
   <si>
     <t xml:space="preserve">statistic</t>
